--- a/biology/Botanique/Silene_viscaria/Silene_viscaria.xlsx
+++ b/biology/Botanique/Silene_viscaria/Silene_viscaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene viscaria, le Silène visqueux, est une plante herbacée de pelouses acides de la famille des Caryophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lychnis viscaria L.
 Steris viscaria (L.) Rafin
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers siliceux, sables, pelouses sèches.
 </t>
@@ -575,9 +591,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante en France [2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante en France .
 En France l'espèce se raréfie : elle est considérée en danger critique (CR) en régions Bourgogne et Centre ; en danger (EN) en Alsace, Franche-Comté et Île-de-France ; elle est considérée vulnérable (VU) en Limousin et Provence-Alpes-Côte d'Azur ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, dans les régions Lorraine, Rhône-Alpes, .
 </t>
         </is>
